--- a/work/7月每日业务动作概况.xlsx
+++ b/work/7月每日业务动作概况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -82,7 +82,43 @@
     <t>2017/7/3全公司房源情况</t>
   </si>
   <si>
+    <t>2017/7/4全公司房源情况</t>
+  </si>
+  <si>
+    <t>X1区</t>
+  </si>
+  <si>
+    <t>X2区</t>
+  </si>
+  <si>
+    <t>N1区</t>
+  </si>
+  <si>
+    <t>N2区</t>
+  </si>
+  <si>
+    <t>B1区</t>
+  </si>
+  <si>
     <t>7月2日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>B2区</t>
+  </si>
+  <si>
+    <t>D1区</t>
+  </si>
+  <si>
+    <t>D2区</t>
+  </si>
+  <si>
+    <t>中大区</t>
+  </si>
+  <si>
+    <t>7月3日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>2017/7/5全公司房源情况</t>
   </si>
 </sst>
 </file>
@@ -91,12 +127,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,22 +157,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,8 +177,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -173,65 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -248,24 +261,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,43 +328,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,132 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -557,40 +586,12 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,20 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +643,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -653,6 +669,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,137 +713,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,40 +880,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1271,61 +1305,61 @@
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="4">
         <v>18495</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>6939</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="4">
         <v>18455</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="4">
         <v>6980</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1333,363 +1367,755 @@
       <c r="B6" s="12">
         <v>42916</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>343</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20">
+      <c r="D6" s="7"/>
+      <c r="E6" s="18">
         <v>241</v>
       </c>
       <c r="G6" s="12">
         <v>42917</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>386</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20">
+      <c r="I6" s="7"/>
+      <c r="J6" s="18">
         <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="14">
         <v>138</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <v>108</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f t="shared" ref="E8:E12" si="0">C8-D8</f>
         <v>30</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="14">
         <v>109</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="14">
         <v>75</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <f t="shared" ref="J8:J12" si="1">H8-I8</f>
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="14">
         <v>39</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="14">
         <v>24</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="14">
         <v>35</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="14">
         <v>22</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="14">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="14">
         <v>17</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="14">
         <v>36</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="14">
         <v>19</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="14">
         <v>101</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="14">
         <v>46</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="14">
         <v>108</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="14">
         <v>34</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>60</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <v>46</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="14">
         <v>98</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="14">
         <v>46</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22">
+      <c r="C13" s="16"/>
+      <c r="D13" s="15">
         <v>35</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="16"/>
+      <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22">
+      <c r="H13" s="16"/>
+      <c r="I13" s="15">
         <v>22</v>
       </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="G15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="4">
         <v>18215</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="4">
         <v>6850</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="14" t="s">
+      <c r="G16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>18146</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="15" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="12">
         <v>42918</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>322</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20">
+      <c r="D19" s="7"/>
+      <c r="E19" s="18">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="21" t="s">
+      <c r="G19" s="12">
+        <v>42919</v>
+      </c>
+      <c r="H19" s="17">
+        <v>363</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="21" t="s">
+      <c r="G20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="14">
         <v>125</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="14">
         <v>72</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <f t="shared" ref="E21:E25" si="2">C21-D21</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="21" t="s">
+      <c r="G21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="14">
+        <v>9</v>
+      </c>
+      <c r="I21" s="14">
+        <v>19</v>
+      </c>
+      <c r="J21" s="18">
+        <f>H21-I21</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="14">
         <v>24</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="14">
         <v>25</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="21" t="s">
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="14">
+        <v>8</v>
+      </c>
+      <c r="I22" s="14">
+        <v>18</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" ref="J22:J29" si="3">H22-I22</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="14">
         <v>12</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="14">
         <v>19</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="21" t="s">
+      <c r="G23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="14">
+        <v>63</v>
+      </c>
+      <c r="I23" s="14">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="14">
         <v>110</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="14">
         <v>51</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="21" t="s">
+      <c r="G24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="14">
+        <v>3</v>
+      </c>
+      <c r="I24" s="14">
+        <v>21</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="14">
         <v>51</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="14">
         <v>46</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="22" t="s">
+      <c r="G25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="14">
+        <v>86</v>
+      </c>
+      <c r="I25" s="14">
+        <v>64</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="16">
+        <v>19</v>
+      </c>
+      <c r="I26" s="14">
+        <v>35</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="16">
+        <v>57</v>
+      </c>
+      <c r="I27" s="14">
+        <v>47</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="16">
+        <v>98</v>
+      </c>
+      <c r="I28" s="14">
+        <v>52</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="16">
+        <v>20</v>
+      </c>
+      <c r="I29" s="14">
+        <v>29</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="G30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15">
+        <v>16</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>17892</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="12">
+        <v>42920</v>
+      </c>
+      <c r="C36" s="17">
+        <v>288</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="18">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="14">
+        <v>17</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26</v>
+      </c>
+      <c r="E38" s="18">
+        <f>C38-D38</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="14">
+        <v>5</v>
+      </c>
+      <c r="D39" s="14">
+        <v>15</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" ref="E39:E46" si="4">C39-D39</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="14">
+        <v>48</v>
+      </c>
+      <c r="D40" s="14">
+        <v>27</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22">
-        <v>16</v>
-      </c>
-      <c r="E26" s="23"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="14">
+        <v>6</v>
+      </c>
+      <c r="D41" s="14">
+        <v>12</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="14">
+        <v>46</v>
+      </c>
+      <c r="D42" s="14">
+        <v>23</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="16">
+        <v>17</v>
+      </c>
+      <c r="D43" s="14">
+        <v>19</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="16">
+        <v>65</v>
+      </c>
+      <c r="D44" s="14">
+        <v>71</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="16">
+        <v>70</v>
+      </c>
+      <c r="D45" s="14">
+        <v>10</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="16">
+        <v>14</v>
+      </c>
+      <c r="D46" s="14">
+        <v>24</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="29">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
@@ -1704,11 +2130,21 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>

--- a/work/7月每日业务动作概况.xlsx
+++ b/work/7月每日业务动作概况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>2017/7/5全公司房源情况</t>
+  </si>
+  <si>
+    <t>2017/7/6全公司房源情况</t>
+  </si>
+  <si>
+    <t>2017/7/7全公司房源情况</t>
   </si>
 </sst>
 </file>
@@ -126,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
@@ -164,9 +170,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,45 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,40 +215,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,16 +262,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,36 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,17 +620,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,16 +677,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1911,15 +1917,21 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:10">
       <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="G32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="12" t="s">
         <v>3</v>
       </c>
@@ -1932,16 +1944,34 @@
       <c r="E33" s="4">
         <v>6592</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="G33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>17853</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="4">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="14" t="s">
         <v>6</v>
       </c>
@@ -1952,8 +1982,18 @@
       <c r="E35" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="12">
         <v>42920</v>
       </c>
@@ -1964,8 +2004,18 @@
       <c r="E36" s="18">
         <v>227</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36" s="12">
+        <v>42921</v>
+      </c>
+      <c r="H36" s="17">
+        <v>376</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="18">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
@@ -1978,8 +2028,20 @@
       <c r="E37" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="G37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
@@ -1993,8 +2055,21 @@
         <f>C38-D38</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="G38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="14">
+        <v>6</v>
+      </c>
+      <c r="I38" s="14">
+        <v>8</v>
+      </c>
+      <c r="J38" s="18">
+        <f>H38-I38</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="14" t="s">
         <v>23</v>
       </c>
@@ -2008,8 +2083,21 @@
         <f t="shared" ref="E39:E46" si="4">C39-D39</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="G39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="14">
+        <v>9</v>
+      </c>
+      <c r="I39" s="14">
+        <v>20</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" ref="J39:J46" si="5">H39-I39</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
@@ -2023,8 +2111,21 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="G40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="14">
+        <v>49</v>
+      </c>
+      <c r="I40" s="14">
+        <v>32</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="14" t="s">
         <v>25</v>
       </c>
@@ -2038,8 +2139,21 @@
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="G41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="14">
+        <v>13</v>
+      </c>
+      <c r="I41" s="14">
+        <v>13</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="19" t="s">
         <v>26</v>
       </c>
@@ -2053,9 +2167,22 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="21" t="s">
+      <c r="G42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="14">
+        <v>92</v>
+      </c>
+      <c r="I42" s="14">
+        <v>19</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="16">
@@ -2068,8 +2195,21 @@
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="G43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="16">
+        <v>6</v>
+      </c>
+      <c r="I43" s="14">
+        <v>9</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
@@ -2083,8 +2223,21 @@
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="G44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="16">
+        <v>71</v>
+      </c>
+      <c r="I44" s="14">
+        <v>52</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="14" t="s">
         <v>30</v>
       </c>
@@ -2098,9 +2251,22 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="21" t="s">
+      <c r="G45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="16">
+        <v>112</v>
+      </c>
+      <c r="I45" s="14">
+        <v>14</v>
+      </c>
+      <c r="J45" s="18">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="16">
@@ -2113,9 +2279,225 @@
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="16">
+        <v>18</v>
+      </c>
+      <c r="I46" s="14">
+        <v>14</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>17719</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="12">
+        <v>42922</v>
+      </c>
+      <c r="C52" s="17">
+        <v>246</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="18">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="14">
+        <v>13</v>
+      </c>
+      <c r="D54" s="14">
+        <v>29</v>
+      </c>
+      <c r="E54" s="18">
+        <f>C54-D54</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="14">
+        <v>5</v>
+      </c>
+      <c r="D55" s="14">
+        <v>5</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" ref="E55:E62" si="6">C55-D55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="14">
+        <v>90</v>
+      </c>
+      <c r="D56" s="14">
+        <v>47</v>
+      </c>
+      <c r="E56" s="18">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="14">
+        <v>6</v>
+      </c>
+      <c r="D57" s="14">
+        <v>14</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="14">
+        <v>35</v>
+      </c>
+      <c r="D58" s="14">
+        <v>29</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="16">
+        <v>6</v>
+      </c>
+      <c r="D59" s="14">
+        <v>14</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="16">
+        <v>32</v>
+      </c>
+      <c r="D60" s="14">
+        <v>42</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="16">
+        <v>67</v>
+      </c>
+      <c r="D61" s="14">
+        <v>19</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="16">
+        <v>10</v>
+      </c>
+      <c r="D62" s="14">
+        <v>18</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="37">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
@@ -2142,9 +2524,17 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>
